--- a/RAAL/Production/Input/GHI_2024-02-10.xlsx
+++ b/RAAL/Production/Input/GHI_2024-02-10.xlsx
@@ -487,13 +487,13 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2747.13</v>
+        <v>2746.91</v>
       </c>
       <c r="H2">
-        <v>6005.38</v>
+        <v>6004.45</v>
       </c>
       <c r="I2">
-        <v>700.1799999999999</v>
+        <v>700.27</v>
       </c>
       <c r="J2">
         <v>686.78</v>
@@ -872,7 +872,7 @@
         <v>3.64</v>
       </c>
       <c r="I9">
-        <v>30.83</v>
+        <v>30.81</v>
       </c>
       <c r="J9">
         <v>4.99</v>
@@ -910,22 +910,22 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>91.87</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="I10">
-        <v>397.3</v>
+        <v>397.17</v>
       </c>
       <c r="J10">
-        <v>45.09</v>
+        <v>45.1</v>
       </c>
       <c r="K10">
-        <v>22.97</v>
+        <v>22.96</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.97</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -951,13 +951,13 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>229.53</v>
+        <v>229.5</v>
       </c>
       <c r="I11">
-        <v>617.23</v>
+        <v>617.1</v>
       </c>
       <c r="J11">
-        <v>69.59</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="K11">
         <v>57.38</v>
@@ -992,22 +992,22 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>348.33</v>
+        <v>348.3</v>
       </c>
       <c r="I12">
-        <v>719.77</v>
+        <v>719.67</v>
       </c>
       <c r="J12">
-        <v>83.5</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="K12">
-        <v>87.08</v>
+        <v>87.06999999999999</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>87.08</v>
+        <v>87.06999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1033,22 +1033,22 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>428.22</v>
+        <v>428.19</v>
       </c>
       <c r="I13">
-        <v>770.17</v>
+        <v>770.08</v>
       </c>
       <c r="J13">
-        <v>91.13</v>
+        <v>91.14</v>
       </c>
       <c r="K13">
-        <v>107.06</v>
+        <v>107.05</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>107.06</v>
+        <v>107.05</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1074,22 +1074,22 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>459.24</v>
+        <v>459.21</v>
       </c>
       <c r="I14">
-        <v>787.13</v>
+        <v>787.04</v>
       </c>
       <c r="J14">
-        <v>93.83</v>
+        <v>93.84</v>
       </c>
       <c r="K14">
-        <v>114.81</v>
+        <v>114.8</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>114.81</v>
+        <v>114.8</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1115,13 +1115,13 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>437.86</v>
+        <v>437.83</v>
       </c>
       <c r="I15">
-        <v>775.61</v>
+        <v>775.52</v>
       </c>
       <c r="J15">
-        <v>91.97</v>
+        <v>91.98999999999999</v>
       </c>
       <c r="K15">
         <v>109.46</v>
@@ -1156,13 +1156,13 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>366.49</v>
+        <v>366.47</v>
       </c>
       <c r="I16">
-        <v>732.26</v>
+        <v>732.1799999999999</v>
       </c>
       <c r="J16">
-        <v>85.31999999999999</v>
+        <v>85.33</v>
       </c>
       <c r="K16">
         <v>91.62</v>
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>253.83</v>
+        <v>253.82</v>
       </c>
       <c r="I17">
-        <v>642.03</v>
+        <v>641.95</v>
       </c>
       <c r="J17">
-        <v>72.76000000000001</v>
+        <v>72.77</v>
       </c>
       <c r="K17">
-        <v>63.46</v>
+        <v>63.47</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>63.46</v>
+        <v>63.47</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1238,22 +1238,22 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>117.29</v>
+        <v>117.28</v>
       </c>
       <c r="I18">
-        <v>454.56</v>
+        <v>454.47</v>
       </c>
       <c r="J18">
-        <v>50.92</v>
+        <v>50.93</v>
       </c>
       <c r="K18">
-        <v>29.32</v>
+        <v>29.35</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>29.32</v>
+        <v>29.35</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1282,7 +1282,7 @@
         <v>10.82</v>
       </c>
       <c r="I19">
-        <v>78.5</v>
+        <v>78.45</v>
       </c>
       <c r="J19">
         <v>11.07</v>
